--- a/pred_ohlcv/54_21/2020-01-12 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ADA ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>169275.2591608901</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>171027.4754608901</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>171280.8632608901</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>168461.9136608901</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>168500.6984608901</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>166040.6984608901</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>206764.1350608901</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>206793.0827608901</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>198690.7711608901</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>205869.4931608901</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>105791.9314608901</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>105543.0319608901</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>104188.9174608901</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>129763.2913608901</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>133299.5718608901</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>68479.09056089011</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>75954.61756089011</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>77664.68916089011</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>75631.60436089011</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>74901.60436089011</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-193497.4243817</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-167818.8974817</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-167804.1357817</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-162079.8483817</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-161334.2715817</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-129486.7101817</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-158082.2041817</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-145954.0442817</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-152048.2679817</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-156079.0558817</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-156079.0558817</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-289969.8965064402</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-193940.4155064402</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ADA ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>169275.2591608901</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>171027.4754608901</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>171280.8632608901</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>168461.9136608901</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>168500.6984608901</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>166040.6984608901</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>172040.6983608901</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>205728.3659608901</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>206764.1350608901</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>206793.0827608901</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>198690.7711608901</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>205869.4931608901</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>204634.9051608901</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>105791.9314608901</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>105543.0319608901</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>106548.9997608901</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>104188.9174608901</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>129763.2913608901</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>133299.5718608901</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>125104.2575608901</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>68479.09056089011</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>75954.61756089011</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>77664.68916089011</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>75631.60436089011</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>74901.60436089011</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-193497.4243817</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-167818.8974817</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-167804.1357817</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-162079.8483817</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-143600.5826817</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-161334.2715817</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-128890.5184817</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-129486.7101817</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-135138.6863817</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-158205.5513817</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-158117.9677817</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-158082.2041817</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-152048.2679817</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-77131.1740679901</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>9723.860290769913</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>8790.841190769914</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-23233.67430923009</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-23233.67430923009</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-23271.88900923009</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-286192.7849064402</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-292709.9649064402</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-193940.4155064402</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
